--- a/Encuesta para el estudio de mercado delprograma_ Especialización en Industria 5.0para egresados. (respuestas).xlsx
+++ b/Encuesta para el estudio de mercado delprograma_ Especialización en Industria 5.0para egresados. (respuestas).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documentos\GitHub\ESPECIALIZACION_EN_INDUSTRIA_5.0_Y_AUTOMATIZACION_INDUSTRIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2057E698-B7F3-4437-8AEE-748A8B09C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F906101-4F1F-419B-A991-B6C7AA624D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,23 @@
     <sheet name="pregunta 9" sheetId="12" r:id="rId11"/>
     <sheet name="pregunta 10" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="254" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -848,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -886,7 +899,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,8 +1041,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1108,6 +1119,24 @@
           </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1169,6 +1198,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E66C-4731-B5F6-B9FEF8FD6204}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1451,6 +1485,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11015266841644795"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1484,10 +1526,56 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1505,10 +1593,56 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1520,10 +1654,56 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1535,10 +1715,56 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1567,19 +1793,129 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1750,7 +2086,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F2CB-4754-B6DF-8AA81DFE4C59}"/>
+              <c16:uniqueId val="{00000001-4040-4AE4-A4E9-E32E21181073}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1765,11 +2101,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1523165679"/>
-        <c:axId val="1523166639"/>
+        <c:axId val="14936639"/>
+        <c:axId val="14928959"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1523165679"/>
+        <c:axId val="14936639"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1812,7 +2148,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1523166639"/>
+        <c:crossAx val="14928959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1820,7 +2156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1523166639"/>
+        <c:axId val="14928959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,11 +2188,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de respuestas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41594082834240315"/>
+              <c:y val="0.92726303257626941"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1523165679"/>
+        <c:crossAx val="14936639"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1870,14 +2274,8 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1923,7 +2321,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
@@ -2036,8 +2434,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2115,6 +2512,78 @@
           </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2176,6 +2645,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-62F9-4D80-BC44-96BC4A355F47}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2195,6 +2669,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-62F9-4D80-BC44-96BC4A355F47}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2214,6 +2693,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-62F9-4D80-BC44-96BC4A355F47}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2233,6 +2717,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-62F9-4D80-BC44-96BC4A355F47}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2582,19 +3071,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2905,6 +3382,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Profesión</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2943,6 +3475,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1523160399"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2981,11 +3514,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de respuestas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1523159919"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3201,19 +3795,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3591,9 +4173,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>4. Por favor indicar el municipio y departamento en el cual reside.</a:t>
+                  <a:rPr lang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Municipio y departamento en el cual reside</a:t>
                 </a:r>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3703,6 +4293,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Numero de respuestas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3914,8 +4559,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3993,6 +4637,60 @@
           </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -4054,6 +4752,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6A86-48E6-A5E6-770369E7BB4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4073,6 +4776,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6A86-48E6-A5E6-770369E7BB4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4092,6 +4800,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6A86-48E6-A5E6-770369E7BB4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4452,19 +5165,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4737,6 +5438,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de respuestas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41594085514296103"/>
+              <c:y val="0.90683107780298988"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4875,8 +5644,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2374890638670178E-2"/>
-          <c:y val="1.7513134851138354E-2"/>
+          <c:x val="0.11015266841644795"/>
+          <c:y val="2.7777777777777776E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4929,19 +5698,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4971,7 +5728,7 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -4986,12 +5743,198 @@
       <c:pivotFmt>
         <c:idx val="1"/>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5051,7 +5994,7 @@
                 <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5157,12 +6100,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2982-48BB-8A2F-89D8ACE4E3C9}"/>
+              <c16:uniqueId val="{00000001-DCDB-447B-8140-BEBFD10D5198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -5170,12 +6113,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="1523147439"/>
-        <c:axId val="1523155599"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="14936639"/>
+        <c:axId val="14928959"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1523147439"/>
+        <c:axId val="14936639"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5218,7 +6162,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1523155599"/>
+        <c:crossAx val="14928959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5226,11 +6170,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1523155599"/>
+        <c:axId val="14928959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5258,38 +6202,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de respuestas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41594082834240315"/>
+              <c:y val="0.92726303257626941"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1523147439"/>
+        <c:crossAx val="14936639"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5303,14 +6288,8 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -5419,6 +6398,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11015266841644795"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5452,24 +6439,6 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1">
@@ -5487,19 +6456,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5529,7 +6486,379 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -5546,7 +6875,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5606,7 +6935,7 @@
                 <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5682,12 +7011,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C8E1-46C0-8DB3-E7BF22806ACC}"/>
+              <c16:uniqueId val="{00000003-54BE-45ED-AB79-0D97A55A06EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -5695,12 +7024,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="1523147439"/>
-        <c:axId val="1523155599"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="14936639"/>
+        <c:axId val="14928959"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1523147439"/>
+        <c:axId val="14936639"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5743,7 +7073,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1523155599"/>
+        <c:crossAx val="14928959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5751,11 +7081,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1523155599"/>
+        <c:axId val="14928959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5783,38 +7113,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de respuestas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41594082834240315"/>
+              <c:y val="0.92726303257626941"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1523147439"/>
+        <c:crossAx val="14936639"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5828,14 +7199,8 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -5881,7 +7246,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
@@ -5993,8 +7358,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6076,7 +7440,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -6094,7 +7458,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -6112,7 +7476,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -10976,7 +12340,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11546,7 +12910,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12887,13 +14251,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1245870</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13010,13 +14374,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14817,7 +16181,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC1B0236-3828-4A93-8C03-7ACE567AADC2}" name="Tabla dinámica1" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC1B0236-3828-4A93-8C03-7ACE567AADC2}" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:F70" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -15177,7 +16541,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EA0700C-2BB0-4C54-A985-FE2A631E5891}" name="Tabla dinámica11" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EA0700C-2BB0-4C54-A985-FE2A631E5891}" name="Tabla dinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="13">
   <location ref="A2:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -15323,7 +16687,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02269A5A-55A6-4EAC-AFD1-4492EC22A010}" name="Tabla dinámica9" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02269A5A-55A6-4EAC-AFD1-4492EC22A010}" name="Tabla dinámica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="18">
   <location ref="A2:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -15372,7 +16736,7 @@
     <dataField name="Cuenta de Marca temporal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="6" series="1">
+    <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -15395,7 +16759,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DCFE8BB-DD2B-4431-86DA-C59FDCAD9F21}" name="Tabla dinámica4" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DCFE8BB-DD2B-4431-86DA-C59FDCAD9F21}" name="Tabla dinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -15448,7 +16812,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Marca temporal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -15470,6 +16834,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -15484,7 +16860,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BF13B0B-62F8-43D9-A387-9A2A3C101216}" name="Tabla dinámica8" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BF13B0B-62F8-43D9-A387-9A2A3C101216}" name="Tabla dinámica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
   <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -15549,7 +16925,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Marca temporal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -15571,6 +16947,54 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -15585,7 +17009,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB9907DA-0726-4D02-BF73-CBD1D006FAE2}" name="Tabla dinámica7" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB9907DA-0726-4D02-BF73-CBD1D006FAE2}" name="Tabla dinámica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="120">
   <location ref="A2:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -15742,7 +17166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204BFCF1-9277-4C4F-AF97-CDD80446C415}" name="Tabla dinámica3" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204BFCF1-9277-4C4F-AF97-CDD80446C415}" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="16">
   <location ref="A2:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -15931,7 +17355,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1BC950FC-B617-4F59-AC3E-B8FB38968885}" name="Tabla dinámica10" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1BC950FC-B617-4F59-AC3E-B8FB38968885}" name="Tabla dinámica10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="A2:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -15992,7 +17416,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Marca temporal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="5">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -16014,6 +17438,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16028,7 +17488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A56F246-8EB8-4504-9A1A-76661FB2FE28}" name="Tabla dinámica19" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A56F246-8EB8-4504-9A1A-76661FB2FE28}" name="Tabla dinámica19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="17">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -16106,7 +17566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CFC66CB-E7F6-4D82-9E49-751842CF1031}" name="Tabla dinámica6" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CFC66CB-E7F6-4D82-9E49-751842CF1031}" name="Tabla dinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="24">
   <location ref="A2:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -16195,7 +17655,7 @@
     <dataField name="Cuenta de Marca temporal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16218,7 +17678,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC5FFB1E-3D3A-4B6E-A4DB-71134EBF4608}" name="Tabla dinámica6" cacheId="254" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC5FFB1E-3D3A-4B6E-A4DB-71134EBF4608}" name="Tabla dinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="21">
   <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -16310,7 +17770,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
+    <chartFormat chart="1" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16557,9 +18017,9 @@
   </sheetPr>
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N86" sqref="N86"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -20319,7 +21779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD22F53-DC0C-4256-8E69-A41C49978C97}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -20330,7 +21790,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -20341,7 +21801,7 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>10</v>
       </c>
     </row>
@@ -20349,7 +21809,7 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>42</v>
       </c>
     </row>
@@ -20357,7 +21817,7 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>11</v>
       </c>
     </row>
@@ -20365,7 +21825,7 @@
       <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
@@ -20373,7 +21833,7 @@
       <c r="A7" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>23</v>
       </c>
     </row>
@@ -20381,7 +21841,7 @@
       <c r="A8" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>92</v>
       </c>
     </row>
@@ -20407,7 +21867,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -20418,7 +21878,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>52</v>
       </c>
     </row>
@@ -20426,7 +21886,7 @@
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>27</v>
       </c>
     </row>
@@ -20434,7 +21894,7 @@
       <c r="A5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>6</v>
       </c>
     </row>
@@ -20442,7 +21902,7 @@
       <c r="A6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
@@ -20450,7 +21910,7 @@
       <c r="A7" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>90</v>
       </c>
     </row>
@@ -20465,8 +21925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24CCCC8-1F4F-4106-8B1B-D66D5A0BB0BE}">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -20478,7 +21938,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -20489,7 +21949,7 @@
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>24</v>
       </c>
     </row>
@@ -20497,7 +21957,7 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>36</v>
       </c>
     </row>
@@ -20505,7 +21965,7 @@
       <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>32</v>
       </c>
     </row>
@@ -20513,7 +21973,7 @@
       <c r="A6" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>92</v>
       </c>
     </row>
@@ -20550,18 +22010,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -20584,12 +22044,10 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
@@ -20597,12 +22055,10 @@
       <c r="B5" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -20610,12 +22066,10 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
@@ -20623,16 +22077,16 @@
       <c r="A7" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
@@ -20643,12 +22097,10 @@
       <c r="B8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -20656,12 +22108,10 @@
       <c r="B9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -20669,12 +22119,10 @@
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -20682,12 +22130,10 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -20695,12 +22141,10 @@
       <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -20708,12 +22152,10 @@
       <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
@@ -20721,12 +22163,10 @@
       <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
@@ -20734,16 +22174,16 @@
       <c r="A15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15">
         <v>7</v>
       </c>
     </row>
@@ -20754,14 +22194,13 @@
       <c r="B16" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
+      <c r="F16">
         <v>6</v>
       </c>
     </row>
@@ -20769,12 +22208,10 @@
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -20782,12 +22219,10 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
@@ -20795,12 +22230,10 @@
       <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
@@ -20808,16 +22241,16 @@
       <c r="A20" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20">
         <v>9</v>
       </c>
     </row>
@@ -20828,16 +22261,16 @@
       <c r="B21" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21">
         <v>11</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21">
         <v>26</v>
       </c>
     </row>
@@ -20845,12 +22278,10 @@
       <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
@@ -20858,12 +22289,10 @@
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13">
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
@@ -20871,12 +22300,10 @@
       <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13">
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
@@ -20884,12 +22311,10 @@
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13">
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
@@ -20897,12 +22322,10 @@
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13">
+      <c r="F26">
         <v>1</v>
       </c>
     </row>
@@ -20910,12 +22333,10 @@
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
@@ -20923,12 +22344,10 @@
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13">
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
@@ -20936,12 +22355,10 @@
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13">
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13">
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
@@ -20949,12 +22366,10 @@
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13">
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13">
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
@@ -20962,12 +22377,10 @@
       <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13">
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
@@ -20975,12 +22388,10 @@
       <c r="B32" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
@@ -20988,12 +22399,10 @@
       <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13">
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
@@ -21001,12 +22410,10 @@
       <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
@@ -21014,12 +22421,10 @@
       <c r="B35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13">
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13">
+      <c r="F35">
         <v>1</v>
       </c>
     </row>
@@ -21027,12 +22432,10 @@
       <c r="B36" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
@@ -21040,12 +22443,10 @@
       <c r="B37" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
@@ -21053,12 +22454,10 @@
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13">
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13">
+      <c r="F38">
         <v>1</v>
       </c>
     </row>
@@ -21066,12 +22465,10 @@
       <c r="B39" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13">
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
@@ -21079,12 +22476,10 @@
       <c r="B40" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13">
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13">
+      <c r="F40">
         <v>1</v>
       </c>
     </row>
@@ -21092,12 +22487,10 @@
       <c r="B41" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13">
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41">
         <v>1</v>
       </c>
     </row>
@@ -21105,12 +22498,10 @@
       <c r="B42" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13">
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13">
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
@@ -21118,12 +22509,10 @@
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13">
+      <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13">
+      <c r="F43">
         <v>1</v>
       </c>
     </row>
@@ -21131,12 +22520,10 @@
       <c r="B44" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13">
+      <c r="F44">
         <v>1</v>
       </c>
     </row>
@@ -21144,12 +22531,10 @@
       <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45">
         <v>1</v>
       </c>
     </row>
@@ -21157,12 +22542,10 @@
       <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46">
         <v>1</v>
       </c>
     </row>
@@ -21170,12 +22553,10 @@
       <c r="B47" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47">
         <v>1</v>
       </c>
     </row>
@@ -21183,12 +22564,10 @@
       <c r="B48" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13">
+      <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48">
         <v>1</v>
       </c>
     </row>
@@ -21196,12 +22575,10 @@
       <c r="B49" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13">
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
@@ -21209,12 +22586,10 @@
       <c r="B50" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13">
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50">
         <v>1</v>
       </c>
     </row>
@@ -21222,12 +22597,10 @@
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13">
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13">
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
@@ -21235,12 +22608,10 @@
       <c r="B52" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13">
+      <c r="F52">
         <v>1</v>
       </c>
     </row>
@@ -21248,12 +22619,10 @@
       <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13">
+      <c r="F53">
         <v>1</v>
       </c>
     </row>
@@ -21261,12 +22630,10 @@
       <c r="B54" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13">
+      <c r="F54">
         <v>1</v>
       </c>
     </row>
@@ -21274,12 +22641,10 @@
       <c r="B55" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13">
+      <c r="F55">
         <v>1</v>
       </c>
     </row>
@@ -21287,12 +22652,10 @@
       <c r="B56" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13">
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
@@ -21300,12 +22663,10 @@
       <c r="B57" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13">
+      <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
@@ -21313,12 +22674,10 @@
       <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13">
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58">
         <v>1</v>
       </c>
     </row>
@@ -21326,12 +22685,10 @@
       <c r="B59" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13">
+      <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
@@ -21339,12 +22696,10 @@
       <c r="B60" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13">
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13">
+      <c r="F60">
         <v>1</v>
       </c>
     </row>
@@ -21352,12 +22707,10 @@
       <c r="B61" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13">
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
@@ -21365,12 +22718,10 @@
       <c r="B62" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13">
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
@@ -21378,12 +22729,10 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13">
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63">
         <v>1</v>
       </c>
     </row>
@@ -21391,16 +22740,16 @@
       <c r="A64" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64">
         <v>27</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64">
         <v>22</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64">
         <v>19</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64">
         <v>68</v>
       </c>
     </row>
@@ -21411,12 +22760,10 @@
       <c r="B65" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13">
+      <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65">
         <v>1</v>
       </c>
     </row>
@@ -21424,12 +22771,10 @@
       <c r="B66" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13">
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66">
         <v>1</v>
       </c>
     </row>
@@ -21437,12 +22782,10 @@
       <c r="B67" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13">
+      <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13">
+      <c r="F67">
         <v>1</v>
       </c>
     </row>
@@ -21450,12 +22793,10 @@
       <c r="B68" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13">
+      <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13">
+      <c r="F68">
         <v>1</v>
       </c>
     </row>
@@ -21463,14 +22804,13 @@
       <c r="A69" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13">
+      <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69">
         <v>2</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69">
         <v>4</v>
       </c>
     </row>
@@ -21478,16 +22818,16 @@
       <c r="A70" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70">
         <v>36</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70">
         <v>32</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70">
         <v>24</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70">
         <v>92</v>
       </c>
     </row>
@@ -21501,7 +22841,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -21511,7 +22851,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -21522,7 +22862,7 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>83</v>
       </c>
     </row>
@@ -21530,7 +22870,7 @@
       <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>9</v>
       </c>
     </row>
@@ -21538,7 +22878,7 @@
       <c r="A5" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>92</v>
       </c>
     </row>
@@ -21554,7 +22894,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -21564,7 +22904,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -21575,7 +22915,7 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>68</v>
       </c>
     </row>
@@ -21583,7 +22923,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>9</v>
       </c>
     </row>
@@ -21591,7 +22931,7 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>7</v>
       </c>
     </row>
@@ -21599,7 +22939,7 @@
       <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
@@ -21607,7 +22947,7 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>4</v>
       </c>
     </row>
@@ -21615,7 +22955,7 @@
       <c r="A8" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>92</v>
       </c>
     </row>
@@ -21631,7 +22971,7 @@
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -21641,7 +22981,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -21652,7 +22992,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>73</v>
       </c>
     </row>
@@ -21660,7 +23000,7 @@
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
@@ -21668,7 +23008,7 @@
       <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -21676,7 +23016,7 @@
       <c r="A6" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -21684,7 +23024,7 @@
       <c r="A7" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -21692,7 +23032,7 @@
       <c r="A8" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -21700,7 +23040,7 @@
       <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -21708,7 +23048,7 @@
       <c r="A10" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -21716,7 +23056,7 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -21724,7 +23064,7 @@
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -21732,7 +23072,7 @@
       <c r="A13" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -21740,7 +23080,7 @@
       <c r="A14" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -21748,7 +23088,7 @@
       <c r="A15" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -21756,7 +23096,7 @@
       <c r="A16" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
@@ -21764,7 +23104,7 @@
       <c r="A17" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -21772,7 +23112,7 @@
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -21780,7 +23120,7 @@
       <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -21788,7 +23128,7 @@
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -21796,7 +23136,7 @@
       <c r="A21" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
@@ -21804,7 +23144,7 @@
       <c r="A22" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22">
         <v>92</v>
       </c>
     </row>
@@ -21818,8 +23158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C2ADC-8FD8-473C-AD72-BCAA2F184357}">
   <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -21829,7 +23169,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -21840,7 +23180,7 @@
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>28</v>
       </c>
     </row>
@@ -21848,7 +23188,7 @@
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>15</v>
       </c>
     </row>
@@ -21856,7 +23196,7 @@
       <c r="A5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>8</v>
       </c>
     </row>
@@ -21864,7 +23204,7 @@
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
@@ -21872,7 +23212,7 @@
       <c r="A7" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
@@ -21880,7 +23220,7 @@
       <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>4</v>
       </c>
     </row>
@@ -21888,7 +23228,7 @@
       <c r="A9" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>3</v>
       </c>
     </row>
@@ -21896,7 +23236,7 @@
       <c r="A10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
@@ -21904,7 +23244,7 @@
       <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
@@ -21912,7 +23252,7 @@
       <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>2</v>
       </c>
     </row>
@@ -21920,7 +23260,7 @@
       <c r="A13" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -21928,7 +23268,7 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -21936,7 +23276,7 @@
       <c r="A15" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -21944,7 +23284,7 @@
       <c r="A16" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
@@ -21952,7 +23292,7 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
@@ -21960,7 +23300,7 @@
       <c r="A18" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -21968,7 +23308,7 @@
       <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -21976,7 +23316,7 @@
       <c r="A20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -21984,7 +23324,7 @@
       <c r="A21" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
@@ -21992,7 +23332,7 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
@@ -22000,7 +23340,7 @@
       <c r="A23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23">
         <v>1</v>
       </c>
     </row>
@@ -22008,7 +23348,7 @@
       <c r="A24" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24">
         <v>1</v>
       </c>
     </row>
@@ -22016,7 +23356,7 @@
       <c r="A25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
@@ -22024,7 +23364,7 @@
       <c r="A26" t="s">
         <v>179</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
@@ -22032,7 +23372,7 @@
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27">
         <v>1</v>
       </c>
     </row>
@@ -22040,7 +23380,7 @@
       <c r="A28" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28">
         <v>1</v>
       </c>
     </row>
@@ -22048,7 +23388,7 @@
       <c r="A29" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
@@ -22056,7 +23396,7 @@
       <c r="A30" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30">
         <v>92</v>
       </c>
     </row>
@@ -22082,7 +23422,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -22093,7 +23433,7 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>66</v>
       </c>
     </row>
@@ -22101,7 +23441,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>18</v>
       </c>
     </row>
@@ -22109,7 +23449,7 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>7</v>
       </c>
     </row>
@@ -22117,7 +23457,7 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -22125,7 +23465,7 @@
       <c r="A7" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>92</v>
       </c>
     </row>
@@ -22141,7 +23481,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -22151,7 +23491,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -22162,7 +23502,7 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2">
         <v>7</v>
       </c>
     </row>
@@ -22170,7 +23510,7 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>85</v>
       </c>
     </row>
@@ -22178,7 +23518,7 @@
       <c r="A4" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>92</v>
       </c>
     </row>
@@ -22194,7 +23534,7 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -22204,7 +23544,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -22215,7 +23555,7 @@
       <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
@@ -22223,7 +23563,7 @@
       <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -22231,7 +23571,7 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -22239,7 +23579,7 @@
       <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -22247,7 +23587,7 @@
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -22255,7 +23595,7 @@
       <c r="A8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -22263,7 +23603,7 @@
       <c r="A9" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -22271,7 +23611,7 @@
       <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -22279,7 +23619,7 @@
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -22287,7 +23627,7 @@
       <c r="A12" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -22295,7 +23635,7 @@
       <c r="A13" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>11</v>
       </c>
     </row>
